--- a/pred_ohlcv/54_21/2019-10-19 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>279336.188</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>279336.188</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>279336.188</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1128510.788284404</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1129313.209784404</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1129037.209884404</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1121930.975184404</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1114458.366384404</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1178401.592884404</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1178971.808884404</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1173642.234384404</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1169197.891084404</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>279336.188</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>279336.188</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>279336.188</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1179795.4473</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1179795.4473</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1178401.592884404</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1178960.947484404</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1178971.808884404</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1175635.458884404</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1175797.458884404</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1173698.878784404</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1170422.381084404</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
